--- a/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.3.xlsx
+++ b/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.3.xlsx
@@ -2483,7 +2483,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="8661" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B15A" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2564,7 +2564,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C92E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D5CB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2771,7 +2771,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B0BA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="94F6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2847,7 +2847,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="86CB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DE4A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2969,7 +2969,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AE5D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AF0C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3121,7 +3121,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="91C1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F73A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3331,7 +3331,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="84C5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EF73" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3500,7 +3500,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A763" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F1E0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3605,7 +3605,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BF19" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9255" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -4372,7 +4372,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C4DD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="984B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4461,7 +4461,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BB2B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FF1E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4649,7 +4649,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="94DD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AC05" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4877,7 +4877,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E57B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EC5D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -5271,7 +5271,7 @@
       <c r="AF4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BE23" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DB2D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AF4"/>
   </mergeCells>
@@ -5490,7 +5490,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9BD6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="952B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.3.xlsx
+++ b/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.3.xlsx
@@ -2483,7 +2483,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="B15A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B102" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2564,7 +2564,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D5CB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B287" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2771,7 +2771,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="94F6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D7C1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2847,7 +2847,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DE4A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F7CD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2969,7 +2969,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AF0C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="87E2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3121,7 +3121,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F73A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DEB5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3331,7 +3331,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EF73" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E455" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3500,7 +3500,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F1E0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EF12" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3605,7 +3605,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9255" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9DE3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -4372,7 +4372,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="984B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DCFE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4461,7 +4461,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FF1E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FA91" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4649,7 +4649,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AC05" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EE39" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4877,7 +4877,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EC5D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C69F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -5271,7 +5271,7 @@
       <c r="AF4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DB2D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C7AF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AF4"/>
   </mergeCells>
@@ -5490,7 +5490,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="952B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8C24" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.3.xlsx
+++ b/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.3.xlsx
@@ -2483,7 +2483,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="B102" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E9A6" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2564,7 +2564,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B287" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9782" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2771,7 +2771,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D7C1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E924" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2847,7 +2847,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F7CD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8CE4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2969,7 +2969,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="87E2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BBBD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3121,7 +3121,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DEB5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B0C9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3331,7 +3331,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E455" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D874" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3500,7 +3500,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EF12" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A077" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3605,7 +3605,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9DE3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D21D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -4372,7 +4372,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DCFE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E4C1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4461,7 +4461,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FA91" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A4E4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4649,7 +4649,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EE39" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D0B0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4877,7 +4877,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C69F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D792" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -5271,7 +5271,7 @@
       <c r="AF4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C7AF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8780" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AF4"/>
   </mergeCells>
@@ -5490,7 +5490,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8C24" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C13C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.3.xlsx
+++ b/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.3.xlsx
@@ -2483,7 +2483,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="E9A6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D82F" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2564,7 +2564,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9782" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B4F3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2771,7 +2771,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E924" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E38E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2847,7 +2847,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8CE4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A4DF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2969,7 +2969,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BBBD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D54D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3121,7 +3121,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B0C9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AAC7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3331,7 +3331,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D874" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8A74" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3500,7 +3500,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A077" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EC1F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3605,7 +3605,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D21D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B040" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -4372,7 +4372,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E4C1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B825" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4461,7 +4461,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A4E4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EEDD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4649,7 +4649,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D0B0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B723" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4877,7 +4877,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D792" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C676" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -5271,7 +5271,7 @@
       <c r="AF4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8780" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F596" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AF4"/>
   </mergeCells>
@@ -5490,7 +5490,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C13C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F3CF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.3.xlsx
+++ b/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.3.xlsx
@@ -2483,7 +2483,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D82F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BC83" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2564,7 +2564,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B4F3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DF1F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2771,7 +2771,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E38E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E168" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2847,7 +2847,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A4DF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8152" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2969,7 +2969,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D54D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9DFB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3121,7 +3121,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AAC7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BB5F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3331,7 +3331,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8A74" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AD69" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3500,7 +3500,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EC1F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AF5A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3605,7 +3605,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B040" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DBEC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -4372,7 +4372,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B825" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C15B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4461,7 +4461,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EEDD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A15B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4649,7 +4649,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B723" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D129" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4877,7 +4877,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C676" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E52D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -5271,7 +5271,7 @@
       <c r="AF4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F596" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B1FE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AF4"/>
   </mergeCells>
@@ -5490,7 +5490,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F3CF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DC6D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.3.xlsx
+++ b/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.3.xlsx
@@ -2483,7 +2483,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="BC83" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A8E1" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2564,7 +2564,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DF1F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E190" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2771,7 +2771,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E168" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CB1A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2847,7 +2847,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8152" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A79D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2969,7 +2969,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9DFB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DD53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3121,7 +3121,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BB5F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="80B5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3331,7 +3331,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AD69" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="887A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3500,7 +3500,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AF5A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CACD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3605,7 +3605,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DBEC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8ABD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -4372,7 +4372,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C15B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C98B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4461,7 +4461,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A15B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FDF0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4649,7 +4649,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D129" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A6B9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4877,7 +4877,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E52D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FD52" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -5271,7 +5271,7 @@
       <c r="AF4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B1FE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AD57" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AF4"/>
   </mergeCells>
@@ -5490,7 +5490,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DC6D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E870" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.3.xlsx
+++ b/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.3.xlsx
@@ -2483,7 +2483,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="A8E1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A0EA" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2564,7 +2564,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E190" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A51F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2771,7 +2771,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CB1A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DB34" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2847,7 +2847,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A79D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A19E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2969,7 +2969,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DD53" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F6BA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3121,7 +3121,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="80B5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9018" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3331,7 +3331,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="887A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="95C3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3500,7 +3500,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CACD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="93A1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3605,7 +3605,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8ABD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9C38" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -4372,7 +4372,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C98B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CFD7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4461,7 +4461,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FDF0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AC76" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4649,7 +4649,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A6B9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D276" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4877,7 +4877,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FD52" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AFD4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -5271,7 +5271,7 @@
       <c r="AF4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AD57" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C670" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AF4"/>
   </mergeCells>
@@ -5490,7 +5490,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E870" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A2FD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.3.xlsx
+++ b/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.3.xlsx
@@ -2483,7 +2483,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="A0EA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8BC7" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2564,7 +2564,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A51F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FEF3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2771,7 +2771,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DB34" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E068" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2847,7 +2847,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A19E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CA9D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2969,7 +2969,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F6BA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9266" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3121,7 +3121,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9018" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CDEF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3331,7 +3331,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="95C3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DDC7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3500,7 +3500,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="93A1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9C61" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3605,7 +3605,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9C38" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CE67" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -4372,7 +4372,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CFD7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C50C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4461,7 +4461,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AC76" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F0C3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4649,7 +4649,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D276" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D4B5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4877,7 +4877,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AFD4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FF01" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -5271,7 +5271,7 @@
       <c r="AF4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C670" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8848" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AF4"/>
   </mergeCells>
@@ -5490,7 +5490,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A2FD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EA7C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.3.xlsx
+++ b/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.3.xlsx
@@ -2483,7 +2483,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="8BC7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="879A" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2564,7 +2564,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FEF3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="840F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2771,7 +2771,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E068" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BB62" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2847,7 +2847,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CA9D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8675" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2969,7 +2969,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9266" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F3CC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3121,7 +3121,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CDEF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C594" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3331,7 +3331,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DDC7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E206" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3500,7 +3500,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9C61" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8975" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3605,7 +3605,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CE67" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B6FB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -4372,7 +4372,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C50C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9B22" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4461,7 +4461,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F0C3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="982D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4649,7 +4649,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D4B5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AC6C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4877,7 +4877,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FF01" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9380" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -5271,7 +5271,7 @@
       <c r="AF4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8848" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C982" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AF4"/>
   </mergeCells>
@@ -5490,7 +5490,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EA7C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8989" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.3.xlsx
+++ b/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.3.xlsx
@@ -2483,7 +2483,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="879A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CB4B" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2564,7 +2564,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="840F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="98BF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2771,7 +2771,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BB62" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A189" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2847,7 +2847,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8675" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FF41" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2969,7 +2969,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F3CC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CFE8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3121,7 +3121,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C594" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B1AA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3331,7 +3331,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E206" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DDDB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3500,7 +3500,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8975" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B617" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3605,7 +3605,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B6FB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A2CC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -4372,7 +4372,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9B22" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F753" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4461,7 +4461,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="982D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A14E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4649,7 +4649,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AC6C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EB2F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4877,7 +4877,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9380" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9906" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -5271,7 +5271,7 @@
       <c r="AF4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C982" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BA54" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AF4"/>
   </mergeCells>
@@ -5490,7 +5490,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8989" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8530" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.3.xlsx
+++ b/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.3.xlsx
@@ -2483,7 +2483,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CB4B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D31D" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2564,7 +2564,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="98BF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="86F7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2771,7 +2771,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A189" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FE1A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2847,7 +2847,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FF41" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AD78" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2969,7 +2969,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CFE8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9313" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3121,7 +3121,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B1AA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C768" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3331,7 +3331,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DDDB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DA6F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3500,7 +3500,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B617" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F725" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3605,7 +3605,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A2CC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DA27" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -4372,7 +4372,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F753" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C612" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4461,7 +4461,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A14E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9B74" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4649,7 +4649,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EB2F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FECC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4877,7 +4877,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9906" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C924" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -5271,7 +5271,7 @@
       <c r="AF4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BA54" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AB58" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AF4"/>
   </mergeCells>
@@ -5490,7 +5490,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8530" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8381" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
